--- a/Mathe/Test Vorlage/Vorlage.xlsx
+++ b/Mathe/Test Vorlage/Vorlage.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Michael\Documents\Michi\Studium\2 Semester\Mathe\Test Vorlage\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Sailer Michael\Documents\Studium\2 Semester\University-MCI\Mathe\Test Vorlage\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56C45427-98DA-453E-A65E-11D4F8CFC884}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1737970-01FA-47B0-B811-DACB310EA26F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-5820" yWindow="1230" windowWidth="21600" windowHeight="11385" firstSheet="2" activeTab="2" xr2:uid="{ED13B2DF-0729-44FB-B7F1-2FD885ED1B9A}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" firstSheet="5" activeTab="8" xr2:uid="{ED13B2DF-0729-44FB-B7F1-2FD885ED1B9A}"/>
   </bookViews>
   <sheets>
     <sheet name="Tilgungsplan Annuität" sheetId="1" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="57">
   <si>
     <t>So</t>
   </si>
@@ -137,9 +137,6 @@
     <t>rt / q^t</t>
   </si>
   <si>
-    <t>intere Zinsfuß</t>
-  </si>
-  <si>
     <t>IK</t>
   </si>
   <si>
@@ -201,6 +198,21 @@
   </si>
   <si>
     <t>Die Amortisationszeit einfach Schätzen</t>
+  </si>
+  <si>
+    <t>ja nach 5 Jahren</t>
+  </si>
+  <si>
+    <t>interer Zinsfuß 2</t>
+  </si>
+  <si>
+    <t>interer Zinsfuß 1</t>
+  </si>
+  <si>
+    <t>A berechnet</t>
+  </si>
+  <si>
+    <t>A Zielwert</t>
   </si>
 </sst>
 </file>
@@ -422,67 +434,67 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0">
-                  <c:v>-400000</c:v>
+                  <c:v>-50000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-360000</c:v>
+                  <c:v>-46000</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-320000</c:v>
+                  <c:v>-42000</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-280000</c:v>
+                  <c:v>-38000</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-240000</c:v>
+                  <c:v>-34000</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-200000</c:v>
+                  <c:v>-30000</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-160000</c:v>
+                  <c:v>-26000</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-120000</c:v>
+                  <c:v>-22000</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-80000</c:v>
+                  <c:v>-18000</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-40000</c:v>
+                  <c:v>-14000</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0</c:v>
+                  <c:v>-10000</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40000</c:v>
+                  <c:v>-6000</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>80000</c:v>
+                  <c:v>-2000</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>120000</c:v>
+                  <c:v>2000</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>160000</c:v>
+                  <c:v>6000</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>200000</c:v>
+                  <c:v>10000</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>240000</c:v>
+                  <c:v>14000</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>280000</c:v>
+                  <c:v>18000</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>320000</c:v>
+                  <c:v>22000</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>360000</c:v>
+                  <c:v>26000</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>400000</c:v>
+                  <c:v>30000</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -599,67 +611,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>-400000</c:v>
+                  <c:v>-50000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-361538.46153846156</c:v>
+                  <c:v>-46135.265700483091</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-324556.21301775152</c:v>
+                  <c:v>-42401.222899017477</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-288996.35867091495</c:v>
+                  <c:v>-38793.452076345391</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-254804.19102972592</c:v>
+                  <c:v>-35307.683165551105</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-221927.10675935185</c:v>
+                  <c:v>-31939.790498117007</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-190314.52573014604</c:v>
+                  <c:v>-28685.787920885996</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-159917.81320206349</c:v>
+                  <c:v>-25541.824078150719</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-130690.20500198414</c:v>
+                  <c:v>-22504.177853285717</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-102586.73557883092</c:v>
+                  <c:v>-19569.253964527259</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-75564.168825798988</c:v>
+                  <c:v>-16733.578709688169</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-49580.93156326827</c:v>
+                  <c:v>-13993.795854771175</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-24597.049580065664</c:v>
+                  <c:v>-11346.662661614659</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-574.08613467854593</c:v>
+                  <c:v>-8789.0460498692319</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>22524.917178193686</c:v>
+                  <c:v>-6317.9188887625396</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>44735.497286724676</c:v>
+                  <c:v>-3930.3564142633199</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>66091.824314158323</c:v>
+                  <c:v>-1623.53276740417</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>86626.754148229127</c:v>
+                  <c:v>605.28235033413921</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>106371.87898868183</c:v>
+                  <c:v>2758.7269085354042</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>125357.57595065558</c:v>
+                  <c:v>4839.3496700825199</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>143613.05379870726</c:v>
+                  <c:v>6849.6132078092023</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -776,67 +788,67 @@
                 <c:formatCode>0.00</c:formatCode>
                 <c:ptCount val="21"/>
                 <c:pt idx="0" formatCode="General">
-                  <c:v>-400000</c:v>
+                  <c:v>-50000</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-361538.46153846156</c:v>
+                  <c:v>-46135.265700483091</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-323816.56804733729</c:v>
+                  <c:v>-42289.201614973514</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-286820.09558488848</c:v>
+                  <c:v>-38461.717549200694</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-250535.09374671755</c:v>
+                  <c:v>-34652.723744615185</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-214947.88040543452</c:v>
+                  <c:v>-30862.130876283711</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-180045.03655148388</c:v>
+                  <c:v>-27089.850050794415</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-145813.40123318613</c:v>
+                  <c:v>-23335.792804172219</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-112240.06659408641</c:v>
+                  <c:v>-19599.871099804233</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-79312.373005738613</c:v>
+                  <c:v>-15881.997326375225</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-47017.904294089807</c:v>
+                  <c:v>-12182.084295813023</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-15344.483057665017</c:v>
+                  <c:v>-8500.0452412438754</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>15719.83392421313</c:v>
+                  <c:v>-4835.7938149576694</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>46186.760194901319</c:v>
+                  <c:v>-1189.2440863829911</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>76067.784037307036</c:v>
+                  <c:v>2439.6894599280404</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>105374.17280582034</c:v>
+                  <c:v>6051.0919263052028</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>134116.97717493915</c:v>
+                  <c:v>9645.0480039559079</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>162307.03530619029</c:v>
+                  <c:v>13221.641974951293</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>189954.97693491736</c:v>
+                  <c:v>16780.957714202741</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>217071.22737847661</c:v>
+                  <c:v>20323.078691428818</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>243666.01146735204</c:v>
+                  <c:v>23848.087973112742</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1378,64 +1390,64 @@
                   <c:v>-40</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>-46.998655512847208</c:v>
+                  <c:v>-50.476190476190474</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>-53.797349439613065</c:v>
+                  <c:v>-60.653061224489797</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>-60.401794968471329</c:v>
+                  <c:v>-70.539164237123416</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>-66.817542053647927</c:v>
+                  <c:v>-80.142807163681795</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>-73.049982079248053</c:v>
+                  <c:v>-89.472060292338497</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>-79.104352389831035</c:v>
+                  <c:v>-98.534763331605021</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>-84.985740691540215</c:v>
+                  <c:v>-107.33853199832106</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>-90.699089327486277</c:v>
+                  <c:v>-115.89076441741665</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>-96.249199430976731</c:v>
+                  <c:v>-124.19864733882379</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>-101.64073496008174</c:v>
+                  <c:v>-132.26916217676217</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>-106.87822661692661</c:v>
+                  <c:v>-140.10909087647372</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>-111.96607565500449</c:v>
+                  <c:v>-147.72502161333637</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>-116.90855757770871</c:v>
+                  <c:v>-155.1233543291458</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>-121.70982573119281</c:v>
+                  <c:v>-162.31030611021782</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>-126.37391479457736</c:v>
+                  <c:v>-169.29191641183064</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>-130.90474417043663</c:v>
+                  <c:v>-176.07405213339737</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>-135.30612127841422</c:v>
+                  <c:v>-182.66241254863363</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>-139.5817447547353</c:v>
+                  <c:v>-189.06253409486314</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>-143.73520756030436</c:v>
+                  <c:v>-195.2797950254861</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>-147.77000000000001</c:v>
+                  <c:v>-201.31941992951982</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3136,57 +3148,57 @@
   <dimension ref="A3:F19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="B3" sqref="B3:B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
         <f>1+B5</f>
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1">
         <f>B3*B6^B4*(B5)/(B6^B4-1)</f>
-        <v>3094.436272553623</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>17468.365712046096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -3206,205 +3218,154 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" s="1">
         <f>B3</f>
-        <v>20000</v>
+        <v>80000</v>
       </c>
       <c r="C12" s="1">
         <f>$B$8</f>
-        <v>3094.436272553623</v>
+        <v>17468.365712046096</v>
       </c>
       <c r="D12" s="1">
         <f>B12*$B$5</f>
-        <v>1000</v>
+        <v>2400</v>
       </c>
       <c r="E12" s="1">
         <f>C12-D12</f>
-        <v>2094.436272553623</v>
+        <v>15068.365712046096</v>
       </c>
       <c r="F12" s="1">
         <f>B12-E12</f>
-        <v>17905.563727446377</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64931.634287953901</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" s="1">
         <f>F12</f>
-        <v>17905.563727446377</v>
+        <v>64931.634287953901</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" ref="C13:C19" si="0">$B$8</f>
-        <v>3094.436272553623</v>
+        <f t="shared" ref="C13:C16" si="0">$B$8</f>
+        <v>17468.365712046096</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:D19" si="1">B13*$B$5</f>
-        <v>895.27818637231894</v>
+        <f t="shared" ref="D13:D16" si="1">B13*$B$5</f>
+        <v>1947.9490286386169</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ref="E13:E19" si="2">C13-D13</f>
-        <v>2199.158086181304</v>
+        <f t="shared" ref="E13:E16" si="2">C13-D13</f>
+        <v>15520.416683407479</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ref="F13:F19" si="3">B13-E13</f>
-        <v>15706.405641265073</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <f t="shared" ref="F13:F16" si="3">B13-E13</f>
+        <v>49411.217604546422</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" ref="B14:B19" si="4">F13</f>
-        <v>15706.405641265073</v>
+        <f t="shared" ref="B14:B16" si="4">F13</f>
+        <v>49411.217604546422</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>3094.436272553623</v>
+        <v>17468.365712046096</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>785.32028206325367</v>
+        <v>1482.3365281363926</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="2"/>
-        <v>2309.1159904903693</v>
+        <v>15986.029183909703</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="3"/>
-        <v>13397.289650774705</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>33425.188420636718</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>4</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="4"/>
-        <v>13397.289650774705</v>
+        <v>33425.188420636718</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>3094.436272553623</v>
+        <v>17468.365712046096</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>669.86448253873527</v>
+        <v>1002.7556526191015</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="2"/>
-        <v>2424.5717900148875</v>
+        <v>16465.610059426996</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="3"/>
-        <v>10972.717860759818</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16959.578361209722</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>5</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="4"/>
-        <v>10972.717860759818</v>
+        <v>16959.578361209722</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>3094.436272553623</v>
+        <v>17468.365712046096</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>548.63589303799097</v>
+        <v>508.78735083629164</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="2"/>
-        <v>2545.8003795156319</v>
+        <v>16959.578361209806</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="3"/>
-        <v>8426.9174812441852</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" si="4"/>
-        <v>8426.9174812441852</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>3094.436272553623</v>
-      </c>
+        <v>-8.3673512563109398E-11</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
       <c r="D17" s="1">
-        <f t="shared" si="1"/>
-        <v>421.3458740622093</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="2"/>
-        <v>2673.0903984914139</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="3"/>
-        <v>5753.8270827527713</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1">
-        <f t="shared" si="4"/>
-        <v>5753.8270827527713</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>3094.436272553623</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="1"/>
-        <v>287.6913541376386</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="2"/>
-        <v>2806.7449184159846</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="3"/>
-        <v>2947.0821643367867</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>8</v>
-      </c>
-      <c r="B19" s="1">
-        <f t="shared" si="4"/>
-        <v>2947.0821643367867</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>3094.436272553623</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="1"/>
-        <v>147.35410821683934</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="2"/>
-        <v>2947.0821643367835</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
+        <f>SUM(D12:D16)</f>
+        <v>7341.828560230404</v>
+      </c>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -3417,81 +3378,84 @@
   <dimension ref="B4:G39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="C4">
         <v>60</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C5">
         <v>6.5</v>
       </c>
       <c r="G5" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C6">
         <v>0.01</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C7">
         <f>1+C6</f>
         <v>1.01</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C8">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="G8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B9" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C9">
-        <v>7.3485882884895686</v>
-      </c>
-    </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B10" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C10">
         <v>0.02</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C11">
         <f>1+C10</f>
         <v>1.02</v>
       </c>
     </row>
-    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B12" t="s">
         <v>2</v>
       </c>
@@ -3499,7 +3463,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="13" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B13" t="s">
         <v>3</v>
       </c>
@@ -3508,18 +3472,18 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17" t="s">
         <v>25</v>
       </c>
       <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
         <v>50</v>
       </c>
-      <c r="D17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B18">
         <v>0</v>
       </c>
@@ -3532,7 +3496,7 @@
         <v>-40</v>
       </c>
     </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B19">
         <v>1</v>
       </c>
@@ -3542,11 +3506,11 @@
       </c>
       <c r="D19" s="1">
         <f>D18-$C$9*$C$11^(B19-1)/$C$13^B19</f>
-        <v>-46.998655512847208</v>
+        <v>-50.476190476190474</v>
       </c>
       <c r="F19" s="1"/>
     </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B20">
         <v>2</v>
       </c>
@@ -3556,11 +3520,11 @@
       </c>
       <c r="D20" s="1">
         <f t="shared" ref="D20:D38" si="1">D19-$C$9*$C$11^(B20-1)/$C$13^B20</f>
-        <v>-53.797349439613065</v>
+        <v>-60.653061224489797</v>
       </c>
       <c r="F20" s="1"/>
     </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B21">
         <v>3</v>
       </c>
@@ -3570,11 +3534,11 @@
       </c>
       <c r="D21" s="1">
         <f t="shared" si="1"/>
-        <v>-60.401794968471329</v>
+        <v>-70.539164237123416</v>
       </c>
       <c r="F21" s="1"/>
     </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B22">
         <v>4</v>
       </c>
@@ -3584,11 +3548,11 @@
       </c>
       <c r="D22" s="1">
         <f t="shared" si="1"/>
-        <v>-66.817542053647927</v>
+        <v>-80.142807163681795</v>
       </c>
       <c r="F22" s="1"/>
     </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B23">
         <v>5</v>
       </c>
@@ -3598,11 +3562,11 @@
       </c>
       <c r="D23" s="1">
         <f t="shared" si="1"/>
-        <v>-73.049982079248053</v>
+        <v>-89.472060292338497</v>
       </c>
       <c r="F23" s="1"/>
     </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B24">
         <v>6</v>
       </c>
@@ -3612,11 +3576,11 @@
       </c>
       <c r="D24" s="1">
         <f t="shared" si="1"/>
-        <v>-79.104352389831035</v>
+        <v>-98.534763331605021</v>
       </c>
       <c r="F24" s="1"/>
     </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B25">
         <v>7</v>
       </c>
@@ -3626,11 +3590,11 @@
       </c>
       <c r="D25" s="1">
         <f t="shared" si="1"/>
-        <v>-84.985740691540215</v>
+        <v>-107.33853199832106</v>
       </c>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B26">
         <v>8</v>
       </c>
@@ -3640,11 +3604,11 @@
       </c>
       <c r="D26" s="1">
         <f t="shared" si="1"/>
-        <v>-90.699089327486277</v>
+        <v>-115.89076441741665</v>
       </c>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B27">
         <v>9</v>
       </c>
@@ -3654,11 +3618,11 @@
       </c>
       <c r="D27" s="1">
         <f t="shared" si="1"/>
-        <v>-96.249199430976731</v>
+        <v>-124.19864733882379</v>
       </c>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B28">
         <v>10</v>
       </c>
@@ -3668,11 +3632,11 @@
       </c>
       <c r="D28" s="1">
         <f t="shared" si="1"/>
-        <v>-101.64073496008174</v>
+        <v>-132.26916217676217</v>
       </c>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B29">
         <v>11</v>
       </c>
@@ -3682,11 +3646,11 @@
       </c>
       <c r="D29" s="1">
         <f t="shared" si="1"/>
-        <v>-106.87822661692661</v>
+        <v>-140.10909087647372</v>
       </c>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B30">
         <v>12</v>
       </c>
@@ -3696,11 +3660,11 @@
       </c>
       <c r="D30" s="1">
         <f t="shared" si="1"/>
-        <v>-111.96607565500449</v>
+        <v>-147.72502161333637</v>
       </c>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B31">
         <v>13</v>
       </c>
@@ -3710,11 +3674,11 @@
       </c>
       <c r="D31" s="1">
         <f t="shared" si="1"/>
-        <v>-116.90855757770871</v>
+        <v>-155.1233543291458</v>
       </c>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B32">
         <v>14</v>
       </c>
@@ -3724,11 +3688,11 @@
       </c>
       <c r="D32" s="1">
         <f t="shared" si="1"/>
-        <v>-121.70982573119281</v>
+        <v>-162.31030611021782</v>
       </c>
       <c r="F32" s="1"/>
     </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B33">
         <v>15</v>
       </c>
@@ -3738,11 +3702,11 @@
       </c>
       <c r="D33" s="1">
         <f t="shared" si="1"/>
-        <v>-126.37391479457736</v>
+        <v>-169.29191641183064</v>
       </c>
       <c r="F33" s="1"/>
     </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B34">
         <v>16</v>
       </c>
@@ -3752,11 +3716,11 @@
       </c>
       <c r="D34" s="1">
         <f t="shared" si="1"/>
-        <v>-130.90474417043663</v>
+        <v>-176.07405213339737</v>
       </c>
       <c r="F34" s="1"/>
     </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B35">
         <v>17</v>
       </c>
@@ -3766,11 +3730,11 @@
       </c>
       <c r="D35" s="1">
         <f t="shared" si="1"/>
-        <v>-135.30612127841422</v>
+        <v>-182.66241254863363</v>
       </c>
       <c r="F35" s="1"/>
     </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B36">
         <v>18</v>
       </c>
@@ -3780,11 +3744,11 @@
       </c>
       <c r="D36" s="1">
         <f t="shared" si="1"/>
-        <v>-139.5817447547353</v>
+        <v>-189.06253409486314</v>
       </c>
       <c r="F36" s="1"/>
     </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B37">
         <v>19</v>
       </c>
@@ -3794,11 +3758,11 @@
       </c>
       <c r="D37" s="1">
         <f t="shared" si="1"/>
-        <v>-143.73520756030436</v>
+        <v>-195.2797950254861</v>
       </c>
       <c r="F37" s="1"/>
     </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B38">
         <v>20</v>
       </c>
@@ -3808,11 +3772,11 @@
       </c>
       <c r="D38" s="1">
         <f t="shared" si="1"/>
-        <v>-147.77000000000001</v>
+        <v>-201.31941992951982</v>
       </c>
       <c r="F38" s="1"/>
     </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.45">
       <c r="F39" s="1"/>
     </row>
   </sheetData>
@@ -3826,49 +3790,49 @@
   <dimension ref="A3:G19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" customWidth="1"/>
     <col min="7" max="7" width="22" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>200000</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
         <f>1+B5</f>
-        <v>1.05</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>11</v>
       </c>
@@ -3876,16 +3840,16 @@
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
         <v>4</v>
       </c>
       <c r="B8" s="1">
         <f>B3*B6^B4*(B5)/(B6^B4-1)</f>
-        <v>30944.36272553623</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+        <v>17468.365712046096</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -3908,237 +3872,174 @@
         <v>10</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12" s="1">
         <f>B3</f>
-        <v>200000</v>
+        <v>80000</v>
       </c>
       <c r="C12" s="1">
         <f>$B$8</f>
-        <v>30944.36272553623</v>
+        <v>17468.365712046096</v>
       </c>
       <c r="D12" s="1">
         <f>B12*$B$5</f>
-        <v>10000</v>
+        <v>2400</v>
       </c>
       <c r="E12" s="1">
         <f>C12-D12</f>
-        <v>20944.36272553623</v>
+        <v>15068.365712046096</v>
       </c>
       <c r="F12" s="1">
         <f>B12-E12</f>
-        <v>179055.63727446378</v>
+        <v>64931.634287953901</v>
       </c>
       <c r="G12" s="1">
-        <f>C12/($B$7+$B$5/2*($B$7-1))</f>
-        <v>2520.9256802880836</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <f>C12/($B$7+$B$5/2*($B$7+1))</f>
+        <v>1432.4203125909057</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13" s="1">
         <f>F12</f>
-        <v>179055.63727446378</v>
+        <v>64931.634287953901</v>
       </c>
       <c r="C13" s="1">
-        <f t="shared" ref="C13:C19" si="0">$B$8</f>
-        <v>30944.36272553623</v>
+        <f t="shared" ref="C13:C16" si="0">$B$8</f>
+        <v>17468.365712046096</v>
       </c>
       <c r="D13" s="1">
-        <f t="shared" ref="D13:D19" si="1">B13*$B$5</f>
-        <v>8952.7818637231885</v>
+        <f t="shared" ref="D13:D16" si="1">B13*$B$5</f>
+        <v>1947.9490286386169</v>
       </c>
       <c r="E13" s="1">
-        <f t="shared" ref="E13:E19" si="2">C13-D13</f>
-        <v>21991.58086181304</v>
+        <f t="shared" ref="E13:E16" si="2">C13-D13</f>
+        <v>15520.416683407479</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ref="F13:F19" si="3">B13-E13</f>
-        <v>157064.05641265074</v>
+        <f t="shared" ref="F13:F16" si="3">B13-E13</f>
+        <v>49411.217604546422</v>
       </c>
       <c r="G13" s="1">
-        <f t="shared" ref="G13:G19" si="4">C13/($B$7+$B$5/2*($B$7-1))</f>
-        <v>2520.9256802880836</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" ref="G13:G16" si="4">C13/($B$7+$B$5/2*($B$7+1))</f>
+        <v>1432.4203125909057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14" s="1">
-        <f t="shared" ref="B14:B19" si="5">F13</f>
-        <v>157064.05641265074</v>
+        <f t="shared" ref="B14:B16" si="5">F13</f>
+        <v>49411.217604546422</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>30944.36272553623</v>
+        <v>17468.365712046096</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>7853.2028206325376</v>
+        <v>1482.3365281363926</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="2"/>
-        <v>23091.159904903692</v>
+        <v>15986.029183909703</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="3"/>
-        <v>133972.89650774703</v>
+        <v>33425.188420636718</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="4"/>
-        <v>2520.9256802880836</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1432.4203125909057</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>4</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="5"/>
-        <v>133972.89650774703</v>
+        <v>33425.188420636718</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>30944.36272553623</v>
+        <v>17468.365712046096</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>6698.6448253873523</v>
+        <v>1002.7556526191015</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="2"/>
-        <v>24245.717900148877</v>
+        <v>16465.610059426996</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="3"/>
-        <v>109727.17860759815</v>
+        <v>16959.578361209722</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="4"/>
-        <v>2520.9256802880836</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1432.4203125909057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>5</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="5"/>
-        <v>109727.17860759815</v>
+        <v>16959.578361209722</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>30944.36272553623</v>
+        <v>17468.365712046096</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>5486.3589303799081</v>
+        <v>508.78735083629164</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="2"/>
-        <v>25458.003795156321</v>
+        <v>16959.578361209806</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="3"/>
-        <v>84269.174812441837</v>
+        <v>-8.3673512563109398E-11</v>
       </c>
       <c r="G16" s="1">
         <f t="shared" si="4"/>
-        <v>2520.9256802880836</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" si="5"/>
-        <v>84269.174812441837</v>
-      </c>
-      <c r="C17" s="1">
-        <f t="shared" si="0"/>
-        <v>30944.36272553623</v>
-      </c>
-      <c r="D17" s="1">
-        <f t="shared" si="1"/>
-        <v>4213.4587406220917</v>
-      </c>
-      <c r="E17" s="1">
-        <f t="shared" si="2"/>
-        <v>26730.903984914137</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="3"/>
-        <v>57538.270827527696</v>
-      </c>
-      <c r="G17" s="1">
-        <f t="shared" si="4"/>
-        <v>2520.9256802880836</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1">
-        <f t="shared" si="5"/>
-        <v>57538.270827527696</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>30944.36272553623</v>
-      </c>
-      <c r="D18" s="1">
-        <f t="shared" si="1"/>
-        <v>2876.9135413763852</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="2"/>
-        <v>28067.449184159843</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="3"/>
-        <v>29470.821643367854</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="4"/>
-        <v>2520.9256802880836</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>8</v>
-      </c>
-      <c r="B19" s="1">
-        <f t="shared" si="5"/>
-        <v>29470.821643367854</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>30944.36272553623</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="1"/>
-        <v>1473.5410821683927</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="2"/>
-        <v>29470.821643367839</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="3"/>
-        <v>0</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="4"/>
-        <v>2520.9256802880836</v>
-      </c>
+        <v>1432.4203125909057</v>
+      </c>
+    </row>
+    <row r="17" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1"/>
+    </row>
+    <row r="18" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
+    </row>
+    <row r="19" spans="2:7" x14ac:dyDescent="0.45">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4147,24 +4048,24 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70B3F174-B01D-4B43-8641-A173D423E11F}">
-  <dimension ref="A3:H35"/>
+  <dimension ref="A3:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="14.140625" customWidth="1"/>
-    <col min="8" max="8" width="16.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.1328125" customWidth="1"/>
+    <col min="8" max="8" width="16.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3">
-        <v>20000</v>
+        <v>80000</v>
       </c>
       <c r="E3" t="s">
         <v>24</v>
@@ -4173,32 +4074,32 @@
         <v>170</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>1</v>
       </c>
       <c r="B4">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>2</v>
       </c>
       <c r="B5">
-        <v>3.5000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>3</v>
       </c>
       <c r="B6">
         <f>1+B5</f>
-        <v>1.0349999999999999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>12</v>
       </c>
@@ -4209,485 +4110,299 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>4</v>
+        <v>55</v>
       </c>
       <c r="B8" s="1">
-        <v>3307.53363197931</v>
+        <f>B3*B6^B4*(B5)/(B6^B4-1)</f>
+        <v>17468.365712046096</v>
       </c>
       <c r="C8">
-        <f>F3*(B9+(B5/2)*(B9+1))</f>
-        <v>2078.6749999999997</v>
+        <f>F3*(B10+(B5/2)*(B10+1))</f>
+        <v>2073.15</v>
       </c>
       <c r="E8" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
+        <v>56</v>
+      </c>
+      <c r="B9" s="1">
+        <v>17787.817907722801</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A10" t="s">
         <v>11</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A12" t="s">
         <v>5</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B12" t="s">
         <v>6</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
         <v>8</v>
       </c>
-      <c r="D11" t="s">
+      <c r="D12" t="s">
         <v>7</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E12" t="s">
         <v>16</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F12" t="s">
         <v>9</v>
       </c>
-      <c r="G11" t="s">
+      <c r="G12" t="s">
         <v>13</v>
       </c>
-      <c r="H11" t="s">
+      <c r="H12" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A12">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A13">
         <v>1</v>
       </c>
-      <c r="B12" s="1">
+      <c r="B13" s="1">
         <f>B3</f>
-        <v>20000</v>
-      </c>
-      <c r="C12" s="1">
-        <f>$C$8</f>
-        <v>2078.6749999999997</v>
-      </c>
-      <c r="D12" s="1">
-        <f>B12*$B$5</f>
-        <v>700.00000000000011</v>
-      </c>
-      <c r="E12" s="1">
-        <f>(C12-D12)/(1+$B$7)</f>
-        <v>1351.6421568627447</v>
-      </c>
-      <c r="F12" s="1">
-        <f>B12-E12</f>
-        <v>18648.357843137255</v>
-      </c>
-      <c r="G12" s="1">
-        <f>$B$7*E12</f>
-        <v>27.032843137254897</v>
-      </c>
-      <c r="H12" s="1">
-        <f>C12/($B$9+$B$5/2*($B$9-1))</f>
-        <v>170.48800492105801</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A13">
+        <v>80000</v>
+      </c>
+      <c r="C13" s="1">
+        <f>$B$8</f>
+        <v>17468.365712046096</v>
+      </c>
+      <c r="D13" s="1">
+        <f>B13*$B$5</f>
+        <v>2400</v>
+      </c>
+      <c r="E13" s="1">
+        <f>(C13-D13)/(1+$B$7)</f>
+        <v>14772.907560829506</v>
+      </c>
+      <c r="F13" s="1">
+        <f>B13-E13</f>
+        <v>65227.09243917049</v>
+      </c>
+      <c r="G13" s="1">
+        <f>$B$7*E13</f>
+        <v>295.45815121659012</v>
+      </c>
+      <c r="H13" s="1">
+        <f>C13/($B$10+$B$5/2*($B$10+1))</f>
+        <v>1432.4203125909057</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A14">
         <v>2</v>
       </c>
-      <c r="B13" s="1">
-        <f>F12</f>
-        <v>18648.357843137255</v>
-      </c>
-      <c r="C13" s="1">
-        <f t="shared" ref="C13:C35" si="0">$C$8</f>
-        <v>2078.6749999999997</v>
-      </c>
-      <c r="D13" s="1">
-        <f t="shared" ref="D13:D21" si="1">B13*$B$5</f>
-        <v>652.692524509804</v>
-      </c>
-      <c r="E13" s="1">
-        <f t="shared" ref="E13:E21" si="2">(C13-D13)/(1+$B$7)</f>
-        <v>1398.0220347943093</v>
-      </c>
-      <c r="F13" s="1">
-        <f t="shared" ref="F13:F21" si="3">B13-E13</f>
-        <v>17250.335808342945</v>
-      </c>
-      <c r="G13" s="1">
-        <f t="shared" ref="G13:G21" si="4">$B$7*E13</f>
-        <v>27.960440695886188</v>
-      </c>
-      <c r="H13" s="1">
-        <f t="shared" ref="H13:H21" si="5">C13/($B$9+$B$5/2*($B$9-1))</f>
-        <v>170.48800492105801</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14">
+      <c r="B14" s="1">
+        <f>F13</f>
+        <v>65227.09243917049</v>
+      </c>
+      <c r="C14" s="1">
+        <f t="shared" ref="C14:C17" si="0">$B$8</f>
+        <v>17468.365712046096</v>
+      </c>
+      <c r="D14" s="1">
+        <f>B14*$B$5</f>
+        <v>1956.8127731751147</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" ref="E14:E17" si="1">(C14-D14)/(1+$B$7)</f>
+        <v>15207.404842030372</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" ref="F14:F17" si="2">B14-E14</f>
+        <v>50019.687597140117</v>
+      </c>
+      <c r="G14" s="1">
+        <f t="shared" ref="G14:G17" si="3">$B$7*E14</f>
+        <v>304.14809684060742</v>
+      </c>
+      <c r="H14" s="1">
+        <f t="shared" ref="H14:H17" si="4">C14/($B$10+$B$5/2*($B$10+1))</f>
+        <v>1432.4203125909057</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A15">
         <v>3</v>
       </c>
-      <c r="B14" s="1">
-        <f t="shared" ref="B14:B21" si="6">F13</f>
-        <v>17250.335808342945</v>
-      </c>
-      <c r="C14" s="1">
-        <f t="shared" si="0"/>
-        <v>2078.6749999999997</v>
-      </c>
-      <c r="D14" s="1">
-        <f t="shared" si="1"/>
-        <v>603.76175329200316</v>
-      </c>
-      <c r="E14" s="1">
-        <f t="shared" si="2"/>
-        <v>1445.9933791254869</v>
-      </c>
-      <c r="F14" s="1">
-        <f t="shared" si="3"/>
-        <v>15804.342429217459</v>
-      </c>
-      <c r="G14" s="1">
-        <f t="shared" si="4"/>
-        <v>28.919867582509738</v>
-      </c>
-      <c r="H14" s="1">
-        <f t="shared" si="5"/>
-        <v>170.48800492105801</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>4</v>
-      </c>
       <c r="B15" s="1">
-        <f t="shared" si="6"/>
-        <v>15804.342429217459</v>
+        <f t="shared" ref="B15:B17" si="5">F14</f>
+        <v>50019.687597140117</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>2078.6749999999997</v>
+        <v>17468.365712046096</v>
       </c>
       <c r="D15" s="1">
+        <f t="shared" ref="D15:D17" si="6">B15*$B$5</f>
+        <v>1500.5906279142034</v>
+      </c>
+      <c r="E15" s="1">
         <f t="shared" si="1"/>
-        <v>553.15198502261114</v>
-      </c>
-      <c r="E15" s="1">
+        <v>15654.681455031267</v>
+      </c>
+      <c r="F15" s="1">
         <f t="shared" si="2"/>
-        <v>1495.6107989974398</v>
-      </c>
-      <c r="F15" s="1">
+        <v>34365.006142108847</v>
+      </c>
+      <c r="G15" s="1">
         <f t="shared" si="3"/>
-        <v>14308.73163022002</v>
-      </c>
-      <c r="G15" s="1">
+        <v>313.09362910062532</v>
+      </c>
+      <c r="H15" s="1">
         <f t="shared" si="4"/>
-        <v>29.912215979948797</v>
-      </c>
-      <c r="H15" s="1">
+        <v>1432.4203125909057</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>4</v>
+      </c>
+      <c r="B16" s="1">
         <f t="shared" si="5"/>
-        <v>170.48800492105801</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>5</v>
-      </c>
-      <c r="B16" s="1">
-        <f t="shared" si="6"/>
-        <v>14308.73163022002</v>
+        <v>34365.006142108847</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>2078.6749999999997</v>
+        <v>17468.365712046096</v>
       </c>
       <c r="D16" s="1">
+        <f t="shared" si="6"/>
+        <v>1030.9501842632653</v>
+      </c>
+      <c r="E16" s="1">
         <f t="shared" si="1"/>
-        <v>500.80560705770074</v>
-      </c>
-      <c r="E16" s="1">
+        <v>16115.113262532188</v>
+      </c>
+      <c r="F16" s="1">
         <f t="shared" si="2"/>
-        <v>1546.9307773944106</v>
-      </c>
-      <c r="F16" s="1">
+        <v>18249.892879576659</v>
+      </c>
+      <c r="G16" s="1">
         <f t="shared" si="3"/>
-        <v>12761.800852825609</v>
-      </c>
-      <c r="G16" s="1">
+        <v>322.30226525064376</v>
+      </c>
+      <c r="H16" s="1">
         <f t="shared" si="4"/>
-        <v>30.938615547888212</v>
-      </c>
-      <c r="H16" s="1">
+        <v>1432.4203125909057</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>5</v>
+      </c>
+      <c r="B17" s="1">
         <f t="shared" si="5"/>
-        <v>170.48800492105801</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>6</v>
-      </c>
-      <c r="B17" s="1">
-        <f t="shared" si="6"/>
-        <v>12761.800852825609</v>
+        <v>18249.892879576659</v>
       </c>
       <c r="C17" s="1">
         <f t="shared" si="0"/>
-        <v>2078.6749999999997</v>
+        <v>17468.365712046096</v>
       </c>
       <c r="D17" s="1">
+        <f t="shared" si="6"/>
+        <v>547.49678638729972</v>
+      </c>
+      <c r="E17" s="1">
         <f t="shared" si="1"/>
-        <v>446.66302984889637</v>
-      </c>
-      <c r="E17" s="1">
+        <v>16589.087182018429</v>
+      </c>
+      <c r="F17" s="1">
         <f t="shared" si="2"/>
-        <v>1600.0117354422582</v>
-      </c>
-      <c r="F17" s="1">
+        <v>1660.8056975582294</v>
+      </c>
+      <c r="G17" s="1">
         <f t="shared" si="3"/>
-        <v>11161.78911738335</v>
-      </c>
-      <c r="G17" s="1">
+        <v>331.78174364036857</v>
+      </c>
+      <c r="H17" s="1">
         <f t="shared" si="4"/>
-        <v>32.000234708845163</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="5"/>
-        <v>170.48800492105801</v>
-      </c>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>7</v>
-      </c>
-      <c r="B18" s="1">
-        <f t="shared" si="6"/>
-        <v>11161.78911738335</v>
-      </c>
-      <c r="C18" s="1">
-        <f t="shared" si="0"/>
-        <v>2078.6749999999997</v>
-      </c>
+        <v>1432.4203125909057</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
       <c r="D18" s="1">
-        <f t="shared" si="1"/>
-        <v>390.66261910841729</v>
-      </c>
-      <c r="E18" s="1">
-        <f t="shared" si="2"/>
-        <v>1654.9140989133159</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="3"/>
-        <v>9506.8750184700348</v>
-      </c>
-      <c r="G18" s="1">
-        <f t="shared" si="4"/>
-        <v>33.098281978266321</v>
-      </c>
+        <f>SUM(D13:D17)</f>
+        <v>7435.8503717398835</v>
+      </c>
+      <c r="E18" s="1"/>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1"/>
       <c r="H18" s="1">
-        <f t="shared" si="5"/>
-        <v>170.48800492105801</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>8</v>
-      </c>
-      <c r="B19" s="1">
-        <f t="shared" si="6"/>
-        <v>9506.8750184700348</v>
-      </c>
-      <c r="C19" s="1">
-        <f t="shared" si="0"/>
-        <v>2078.6749999999997</v>
-      </c>
-      <c r="D19" s="1">
-        <f t="shared" si="1"/>
-        <v>332.74062564645124</v>
-      </c>
-      <c r="E19" s="1">
-        <f t="shared" si="2"/>
-        <v>1711.7003670132829</v>
-      </c>
-      <c r="F19" s="1">
-        <f t="shared" si="3"/>
-        <v>7795.1746514567521</v>
-      </c>
-      <c r="G19" s="1">
-        <f t="shared" si="4"/>
-        <v>34.234007340265656</v>
-      </c>
-      <c r="H19" s="1">
-        <f t="shared" si="5"/>
-        <v>170.48800492105801</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>9</v>
-      </c>
-      <c r="B20" s="1">
-        <f t="shared" si="6"/>
-        <v>7795.1746514567521</v>
-      </c>
-      <c r="C20" s="1">
-        <f t="shared" si="0"/>
-        <v>2078.6749999999997</v>
-      </c>
-      <c r="D20" s="1">
-        <f t="shared" si="1"/>
-        <v>272.83111280098638</v>
-      </c>
-      <c r="E20" s="1">
-        <f t="shared" si="2"/>
-        <v>1770.4351835284444</v>
-      </c>
-      <c r="F20" s="1">
-        <f t="shared" si="3"/>
-        <v>6024.7394679283079</v>
-      </c>
-      <c r="G20" s="1">
-        <f t="shared" si="4"/>
-        <v>35.40870367056889</v>
-      </c>
-      <c r="H20" s="1">
-        <f t="shared" si="5"/>
-        <v>170.48800492105801</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>10</v>
-      </c>
-      <c r="B21" s="1">
-        <f t="shared" si="6"/>
-        <v>6024.7394679283079</v>
-      </c>
-      <c r="C21" s="1">
-        <f t="shared" si="0"/>
-        <v>2078.6749999999997</v>
-      </c>
-      <c r="D21" s="1">
-        <f t="shared" si="1"/>
-        <v>210.86588137749081</v>
-      </c>
-      <c r="E21" s="1">
-        <f t="shared" si="2"/>
-        <v>1831.1854104142244</v>
-      </c>
-      <c r="F21" s="1">
-        <f t="shared" si="3"/>
-        <v>4193.554057514084</v>
-      </c>
-      <c r="G21" s="1">
-        <f t="shared" si="4"/>
-        <v>36.623708208284491</v>
-      </c>
-      <c r="H21" s="1">
-        <f t="shared" si="5"/>
-        <v>170.48800492105801</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>11</v>
-      </c>
-      <c r="B22" s="1">
-        <f t="shared" ref="B22:B24" si="7">F21</f>
-        <v>4193.554057514084</v>
-      </c>
-      <c r="C22" s="1">
-        <f t="shared" si="0"/>
-        <v>2078.6749999999997</v>
-      </c>
-      <c r="D22" s="1">
-        <f t="shared" ref="D22:D24" si="8">B22*$B$5</f>
-        <v>146.77439201299296</v>
-      </c>
-      <c r="E22" s="1">
-        <f t="shared" ref="E22:E24" si="9">(C22-D22)/(1+$B$7)</f>
-        <v>1894.0202039088304</v>
-      </c>
-      <c r="F22" s="1">
-        <f t="shared" ref="F22:F24" si="10">B22-E22</f>
-        <v>2299.5338536052536</v>
-      </c>
-      <c r="G22" s="1">
-        <f t="shared" ref="G22:G24" si="11">$B$7*E22</f>
-        <v>37.88040407817661</v>
-      </c>
-      <c r="H22" s="1">
-        <f t="shared" ref="H22:H24" si="12">C22/($B$9+$B$5/2*($B$9-1))</f>
-        <v>170.48800492105801</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>12</v>
-      </c>
-      <c r="B23" s="1">
-        <f t="shared" si="7"/>
-        <v>2299.5338536052536</v>
-      </c>
-      <c r="C23" s="1">
-        <f>$C$8</f>
-        <v>2078.6749999999997</v>
-      </c>
-      <c r="D23" s="1">
-        <f t="shared" si="8"/>
-        <v>80.483684876183887</v>
-      </c>
-      <c r="E23" s="1">
-        <f>(C23-D23)/(1+$B$7)</f>
-        <v>1959.0110932586431</v>
-      </c>
-      <c r="F23" s="1">
-        <f>B23-E23</f>
-        <v>340.52276034661054</v>
-      </c>
-      <c r="G23" s="1">
-        <f t="shared" si="11"/>
-        <v>39.180221865172861</v>
-      </c>
-      <c r="H23" s="1">
-        <f t="shared" si="12"/>
-        <v>170.48800492105801</v>
-      </c>
-    </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>13</v>
-      </c>
-      <c r="B24" s="1">
-        <f t="shared" si="7"/>
-        <v>340.52276034661054</v>
-      </c>
-      <c r="C24" s="1">
-        <f>$C$8</f>
-        <v>2078.6749999999997</v>
-      </c>
-      <c r="D24" s="1">
-        <f>B24*$B$5</f>
-        <v>11.918296612131369</v>
-      </c>
-      <c r="E24" s="1">
-        <f>(C24-D24)/(1+$B$7)</f>
-        <v>2026.2320621449692</v>
-      </c>
-      <c r="F24" s="1">
-        <f>B24-E24</f>
-        <v>-1685.7093017983586</v>
-      </c>
-      <c r="G24" s="1">
-        <f t="shared" si="11"/>
-        <v>40.524641242899385</v>
-      </c>
-      <c r="H24" s="1">
-        <f t="shared" si="12"/>
-        <v>170.48800492105801</v>
-      </c>
-    </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+        <f>SUM(H13:H17)</f>
+        <v>7162.1015629545291</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+      <c r="F19" s="1"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+      <c r="F20" s="1"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+      <c r="F21" s="1"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+      <c r="F23" s="1"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="B24" s="1"/>
+      <c r="C24" s="1"/>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+      <c r="F24" s="1"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -4696,7 +4411,7 @@
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B26" s="1"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
@@ -4705,7 +4420,7 @@
       <c r="G26" s="1"/>
       <c r="H26" s="1"/>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B27" s="1"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -4714,7 +4429,7 @@
       <c r="G27" s="1"/>
       <c r="H27" s="1"/>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B28" s="1"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
@@ -4723,7 +4438,7 @@
       <c r="G28" s="1"/>
       <c r="H28" s="1"/>
     </row>
-    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B29" s="1"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
@@ -4732,7 +4447,7 @@
       <c r="G29" s="1"/>
       <c r="H29" s="1"/>
     </row>
-    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B30" s="1"/>
       <c r="C30" s="1"/>
       <c r="D30" s="1"/>
@@ -4741,7 +4456,7 @@
       <c r="G30" s="1"/>
       <c r="H30" s="1"/>
     </row>
-    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B31" s="1"/>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
@@ -4750,7 +4465,7 @@
       <c r="G31" s="1"/>
       <c r="H31" s="1"/>
     </row>
-    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:8" x14ac:dyDescent="0.45">
       <c r="B32" s="1"/>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
@@ -4759,7 +4474,7 @@
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
     </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B33" s="1"/>
       <c r="C33" s="1"/>
       <c r="D33" s="1"/>
@@ -4768,7 +4483,7 @@
       <c r="G33" s="1"/>
       <c r="H33" s="1"/>
     </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
       <c r="D34" s="1"/>
@@ -4777,7 +4492,7 @@
       <c r="G34" s="1"/>
       <c r="H34" s="1"/>
     </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:8" x14ac:dyDescent="0.45">
       <c r="B35" s="1"/>
       <c r="C35" s="1"/>
       <c r="D35" s="1"/>
@@ -4785,6 +4500,15 @@
       <c r="F35" s="1"/>
       <c r="G35" s="1"/>
       <c r="H35" s="1"/>
+    </row>
+    <row r="36" spans="2:8" x14ac:dyDescent="0.45">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+      <c r="F36" s="1"/>
+      <c r="G36" s="1"/>
+      <c r="H36" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
@@ -4796,20 +4520,20 @@
   <dimension ref="A2:F17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B6"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <sheetData>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -4817,33 +4541,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <f>1+B4</f>
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6">
         <f>B2/B3</f>
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
         <v>5</v>
       </c>
@@ -4863,143 +4587,147 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>1</v>
       </c>
       <c r="B12">
         <f>B2</f>
-        <v>400000</v>
+        <v>80000</v>
       </c>
       <c r="C12">
         <f>D12+E12</f>
-        <v>96000</v>
+        <v>18400</v>
       </c>
       <c r="D12">
         <f>B12*$B$4</f>
-        <v>16000</v>
+        <v>2400</v>
       </c>
       <c r="E12">
         <f>$B$6</f>
-        <v>80000</v>
+        <v>16000</v>
       </c>
       <c r="F12">
         <f>B12-E12</f>
-        <v>320000</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+        <v>64000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13">
         <v>2</v>
       </c>
       <c r="B13">
         <f>F12</f>
-        <v>320000</v>
+        <v>64000</v>
       </c>
       <c r="C13">
         <f t="shared" ref="C13:C16" si="0">D13+E13</f>
-        <v>92800</v>
+        <v>17920</v>
       </c>
       <c r="D13">
         <f t="shared" ref="D13:D16" si="1">B13*$B$4</f>
-        <v>12800</v>
+        <v>1920</v>
       </c>
       <c r="E13">
         <f t="shared" ref="E13:E16" si="2">$B$6</f>
-        <v>80000</v>
+        <v>16000</v>
       </c>
       <c r="F13">
         <f t="shared" ref="F13:F16" si="3">B13-E13</f>
-        <v>240000</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>48000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14">
         <v>3</v>
       </c>
       <c r="B14">
         <f t="shared" ref="B14:B16" si="4">F13</f>
-        <v>240000</v>
+        <v>48000</v>
       </c>
       <c r="C14">
         <f t="shared" si="0"/>
-        <v>89600</v>
+        <v>17440</v>
       </c>
       <c r="D14">
         <f t="shared" si="1"/>
-        <v>9600</v>
+        <v>1440</v>
       </c>
       <c r="E14">
         <f t="shared" si="2"/>
-        <v>80000</v>
+        <v>16000</v>
       </c>
       <c r="F14">
         <f t="shared" si="3"/>
-        <v>160000</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+        <v>32000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>4</v>
       </c>
       <c r="B15">
         <f t="shared" si="4"/>
-        <v>160000</v>
+        <v>32000</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>86400</v>
+        <v>16960</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>6400</v>
+        <v>960</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
-        <v>80000</v>
+        <v>16000</v>
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>5</v>
       </c>
       <c r="B16">
         <f t="shared" si="4"/>
-        <v>80000</v>
+        <v>16000</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>83200</v>
+        <v>16480</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>3200</v>
+        <v>480</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
-        <v>80000</v>
+        <v>16000</v>
       </c>
       <c r="F16">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B17">
         <f>SUM(B12:B16)</f>
-        <v>1200000</v>
+        <v>240000</v>
+      </c>
+      <c r="C17">
+        <f>SUM(C12:C16)</f>
+        <v>87200</v>
       </c>
       <c r="D17">
         <f>SUM(D12:D16)</f>
-        <v>48000</v>
+        <v>7200</v>
       </c>
       <c r="F17">
         <f>SUM(F12:F16)</f>
-        <v>800000</v>
+        <v>160000</v>
       </c>
     </row>
   </sheetData>
@@ -5009,28 +4737,28 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BCB370A5-C72A-4690-91CE-31EAFFF5B076}">
-  <dimension ref="A2:G16"/>
+  <dimension ref="A2:G17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:B6"/>
+      <selection activeCell="D18" sqref="D18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="11.42578125" style="1"/>
-    <col min="7" max="7" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="6" width="11.3984375" style="1"/>
+    <col min="7" max="7" width="23.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>17</v>
       </c>
       <c r="B2">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -5038,33 +4766,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <f>1+B4</f>
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>18</v>
       </c>
       <c r="B6">
         <f>B2/B3</f>
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
@@ -5072,7 +4800,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -5095,141 +4823,141 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>1</v>
       </c>
       <c r="B12" s="1">
         <f>B2</f>
-        <v>400000</v>
+        <v>80000</v>
       </c>
       <c r="C12" s="1">
         <f>D12+E12</f>
-        <v>96000</v>
+        <v>18400</v>
       </c>
       <c r="D12" s="1">
         <f>B12*$B$4</f>
-        <v>16000</v>
+        <v>2400</v>
       </c>
       <c r="E12" s="1">
         <f>$B$6</f>
-        <v>80000</v>
+        <v>16000</v>
       </c>
       <c r="F12" s="1">
         <f>B12-E12</f>
-        <v>320000</v>
+        <v>64000</v>
       </c>
       <c r="G12" s="1">
         <f>C12/($B$7+$B$4/2*($B$7+1))</f>
-        <v>7830.3425774877651</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1508.8150881508814</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>2</v>
       </c>
       <c r="B13" s="1">
         <f>F12</f>
-        <v>320000</v>
+        <v>64000</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ref="C13:C16" si="0">D13+E13</f>
-        <v>92800</v>
+        <v>17920</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ref="D13:D16" si="1">B13*$B$4</f>
-        <v>12800</v>
+        <v>1920</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ref="E13:E16" si="2">$B$6</f>
-        <v>80000</v>
+        <v>16000</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ref="F13:F16" si="3">B13-E13</f>
-        <v>240000</v>
+        <v>48000</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ref="G13:G16" si="4">C13/($B$7+$B$4/2*($B$7+1))</f>
-        <v>7569.331158238173</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1469.4546945469453</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>3</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" ref="B14:B16" si="5">F13</f>
-        <v>240000</v>
+        <v>48000</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>89600</v>
+        <v>17440</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>9600</v>
+        <v>1440</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="2"/>
-        <v>80000</v>
+        <v>16000</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="3"/>
-        <v>160000</v>
+        <v>32000</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="4"/>
-        <v>7308.3197389885809</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1430.0943009430093</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>4</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="5"/>
-        <v>160000</v>
+        <v>32000</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>86400</v>
+        <v>16960</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>6400</v>
+        <v>960</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="2"/>
-        <v>80000</v>
+        <v>16000</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="3"/>
-        <v>80000</v>
+        <v>16000</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="4"/>
-        <v>7047.3083197389888</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+        <v>1390.7339073390733</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>5</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="5"/>
-        <v>80000</v>
+        <v>16000</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>83200</v>
+        <v>16480</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>3200</v>
+        <v>480</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="2"/>
-        <v>80000</v>
+        <v>16000</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="3"/>
@@ -5237,7 +4965,13 @@
       </c>
       <c r="G16" s="1">
         <f t="shared" si="4"/>
-        <v>6786.2969004893966</v>
+        <v>1351.3735137351373</v>
+      </c>
+    </row>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.45">
+      <c r="D17" s="1">
+        <f>SUM(D12:D16)</f>
+        <v>7200</v>
       </c>
     </row>
   </sheetData>
@@ -5250,25 +4984,25 @@
   <dimension ref="A2:H20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="11.42578125" style="1"/>
-    <col min="7" max="7" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="6" width="11.3984375" style="1"/>
+    <col min="7" max="7" width="23.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
       <c r="B2">
-        <v>400000</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+        <v>80000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5276,33 +5010,33 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="B5">
         <f>1+B4</f>
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B6">
         <f>B2/B3</f>
-        <v>80000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+        <v>16000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -5310,7 +5044,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -5318,7 +5052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -5344,157 +5078,157 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="2">
         <v>1</v>
       </c>
       <c r="B12" s="1">
         <f>B2</f>
-        <v>400000</v>
+        <v>80000</v>
       </c>
       <c r="C12" s="1">
         <f>D12+E12+H12</f>
-        <v>97600</v>
+        <v>18720</v>
       </c>
       <c r="D12" s="1">
         <f>B12*$B$4</f>
-        <v>16000</v>
+        <v>2400</v>
       </c>
       <c r="E12" s="1">
         <f>$B$6</f>
-        <v>80000</v>
+        <v>16000</v>
       </c>
       <c r="F12" s="1">
         <f>B12-E12</f>
-        <v>320000</v>
+        <v>64000</v>
       </c>
       <c r="G12" s="1">
         <f>C12/($B$8+$B$4/2*($B$8+1))</f>
-        <v>7960.8482871125616</v>
+        <v>1535.0553505535056</v>
       </c>
       <c r="H12" s="1">
         <f>E12*$B$7</f>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="2">
         <v>2</v>
       </c>
       <c r="B13" s="1">
         <f>F12</f>
-        <v>320000</v>
+        <v>64000</v>
       </c>
       <c r="C13" s="1">
         <f t="shared" ref="C13:C16" si="0">D13+E13+H13</f>
-        <v>94400</v>
+        <v>18240</v>
       </c>
       <c r="D13" s="1">
         <f t="shared" ref="D13:D16" si="1">B13*$B$4</f>
-        <v>12800</v>
+        <v>1920</v>
       </c>
       <c r="E13" s="1">
         <f t="shared" ref="E13:E16" si="2">$B$6</f>
-        <v>80000</v>
+        <v>16000</v>
       </c>
       <c r="F13" s="1">
         <f t="shared" ref="F13:F16" si="3">B13-E13</f>
-        <v>240000</v>
+        <v>48000</v>
       </c>
       <c r="G13" s="1">
         <f t="shared" ref="G13:G16" si="4">C13/($B$8+$B$4/2*($B$8+1))</f>
-        <v>7699.8368678629695</v>
+        <v>1495.6949569495694</v>
       </c>
       <c r="H13" s="1">
         <f t="shared" ref="H13:H16" si="5">E13*$B$7</f>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="2">
         <v>3</v>
       </c>
       <c r="B14" s="1">
         <f t="shared" ref="B14:B16" si="6">F13</f>
-        <v>240000</v>
+        <v>48000</v>
       </c>
       <c r="C14" s="1">
         <f t="shared" si="0"/>
-        <v>91200</v>
+        <v>17760</v>
       </c>
       <c r="D14" s="1">
         <f t="shared" si="1"/>
-        <v>9600</v>
+        <v>1440</v>
       </c>
       <c r="E14" s="1">
         <f t="shared" si="2"/>
-        <v>80000</v>
+        <v>16000</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="3"/>
-        <v>160000</v>
+        <v>32000</v>
       </c>
       <c r="G14" s="1">
         <f t="shared" si="4"/>
-        <v>7438.8254486133774</v>
+        <v>1456.3345633456333</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="5"/>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="2">
         <v>4</v>
       </c>
       <c r="B15" s="1">
         <f t="shared" si="6"/>
-        <v>160000</v>
+        <v>32000</v>
       </c>
       <c r="C15" s="1">
         <f t="shared" si="0"/>
-        <v>88000</v>
+        <v>17280</v>
       </c>
       <c r="D15" s="1">
         <f t="shared" si="1"/>
-        <v>6400</v>
+        <v>960</v>
       </c>
       <c r="E15" s="1">
         <f t="shared" si="2"/>
-        <v>80000</v>
+        <v>16000</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="3"/>
-        <v>80000</v>
+        <v>16000</v>
       </c>
       <c r="G15" s="1">
         <f t="shared" si="4"/>
-        <v>7177.8140293637844</v>
+        <v>1416.9741697416973</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="5"/>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="2">
         <v>5</v>
       </c>
       <c r="B16" s="1">
         <f t="shared" si="6"/>
-        <v>80000</v>
+        <v>16000</v>
       </c>
       <c r="C16" s="1">
         <f t="shared" si="0"/>
-        <v>84800</v>
+        <v>16800</v>
       </c>
       <c r="D16" s="1">
         <f t="shared" si="1"/>
-        <v>3200</v>
+        <v>480</v>
       </c>
       <c r="E16" s="1">
         <f t="shared" si="2"/>
-        <v>80000</v>
+        <v>16000</v>
       </c>
       <c r="F16" s="1">
         <f t="shared" si="3"/>
@@ -5502,38 +5236,38 @@
       </c>
       <c r="G16" s="1">
         <f t="shared" si="4"/>
-        <v>6916.8026101141922</v>
+        <v>1377.6137761377613</v>
       </c>
       <c r="H16" s="1">
         <f t="shared" si="5"/>
-        <v>1600</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="C20" s="1">
         <f>SUM(C12:C19)</f>
-        <v>456000</v>
+        <v>88800</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" ref="D20:E20" si="7">SUM(D12:D19)</f>
-        <v>48000</v>
+        <v>7200</v>
       </c>
       <c r="E20" s="1">
         <f t="shared" si="7"/>
-        <v>400000</v>
+        <v>80000</v>
       </c>
       <c r="G20" s="1">
         <f>SUM(G12:G19)</f>
-        <v>37194.127243066883</v>
+        <v>7281.6728167281672</v>
       </c>
     </row>
   </sheetData>
@@ -5549,14 +5283,14 @@
       <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.3984375" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="6" width="11.42578125" style="1"/>
-    <col min="7" max="7" width="23.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="8" max="16384" width="11.42578125" style="1"/>
+    <col min="1" max="6" width="11.3984375" style="1"/>
+    <col min="7" max="7" width="23.1328125" style="1" bestFit="1" customWidth="1"/>
+    <col min="8" max="16384" width="11.3984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="1" t="s">
         <v>17</v>
       </c>
@@ -5564,7 +5298,7 @@
         <v>200000</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A3" s="1" t="s">
         <v>1</v>
       </c>
@@ -5572,7 +5306,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
@@ -5580,7 +5314,7 @@
         <v>0.05</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A5" s="1" t="s">
         <v>3</v>
       </c>
@@ -5589,7 +5323,7 @@
         <v>1.05</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A6" s="1" t="s">
         <v>18</v>
       </c>
@@ -5598,7 +5332,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -5606,7 +5340,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A8" s="1" t="s">
         <v>11</v>
       </c>
@@ -5614,7 +5348,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A11" s="1" t="s">
         <v>5</v>
       </c>
@@ -5640,7 +5374,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A12" s="1">
         <v>1</v>
       </c>
@@ -5672,7 +5406,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A13" s="1">
         <v>2</v>
       </c>
@@ -5704,7 +5438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A14" s="1">
         <v>3</v>
       </c>
@@ -5737,7 +5471,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A15" s="1">
         <v>4</v>
       </c>
@@ -5770,7 +5504,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A16" s="1">
         <v>5</v>
       </c>
@@ -5803,7 +5537,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A17" s="1">
         <v>6</v>
       </c>
@@ -5836,7 +5570,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A18" s="1">
         <v>7</v>
       </c>
@@ -5869,7 +5603,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A19" s="1">
         <v>8</v>
       </c>
@@ -5902,7 +5636,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A20" s="1">
         <v>9</v>
       </c>
@@ -5935,7 +5669,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A21" s="1">
         <v>10</v>
       </c>
@@ -5968,7 +5702,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.45">
       <c r="C22" s="1">
         <f>SUM(C14:C21)</f>
         <v>249000</v>
@@ -5996,20 +5730,23 @@
   <dimension ref="A1:J37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.73046875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="F1" t="s">
+        <v>54</v>
+      </c>
       <c r="G1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
         <v>2</v>
       </c>
@@ -6017,16 +5754,16 @@
         <v>0</v>
       </c>
       <c r="E2">
-        <v>9.5000000000000001E-2</v>
+        <v>4.4999999999999998E-2</v>
       </c>
       <c r="F2">
-        <v>0.11</v>
+        <v>0.17068713621466333</v>
       </c>
       <c r="G2">
-        <v>0.10398399473693712</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+        <v>0.26248780252478182</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -6036,23 +5773,23 @@
       </c>
       <c r="E3">
         <f>1+E2</f>
-        <v>1.095</v>
+        <v>1.0449999999999999</v>
       </c>
       <c r="F3">
         <f>1+F2</f>
-        <v>1.1100000000000001</v>
+        <v>1.1706871362146634</v>
       </c>
       <c r="G3">
         <f>1+G2</f>
-        <v>1.1039839947369372</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="H5" s="3"/>
+        <v>1.2624878025247819</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="G5" s="3"/>
       <c r="I5" s="3"/>
       <c r="J5" s="3"/>
     </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
         <v>25</v>
       </c>
@@ -6071,11 +5808,8 @@
       <c r="F6" t="s">
         <v>30</v>
       </c>
-      <c r="G6" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A7">
         <v>0</v>
       </c>
@@ -6083,233 +5817,299 @@
         <v>0</v>
       </c>
       <c r="C7">
-        <v>435</v>
+        <v>800</v>
       </c>
       <c r="D7">
         <f>B7-C7</f>
-        <v>-435</v>
+        <v>-800</v>
       </c>
       <c r="E7" s="1">
         <f>$D7/E$3^$A7</f>
-        <v>-435</v>
+        <v>-800</v>
       </c>
       <c r="F7" s="1">
-        <f t="shared" ref="F7:G7" si="0">$D7/F$3^$A7</f>
-        <v>-435</v>
-      </c>
-      <c r="G7" s="1">
-        <f t="shared" si="0"/>
-        <v>-435</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+        <f>$D7/F$3^$A7</f>
+        <v>-800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A8">
         <v>1</v>
       </c>
       <c r="B8">
-        <v>150</v>
+        <v>300</v>
       </c>
       <c r="C8">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="D8">
-        <f t="shared" ref="D8:D12" si="1">B8-C8</f>
-        <v>105</v>
+        <f t="shared" ref="D8:D11" si="0">B8-C8</f>
+        <v>260</v>
       </c>
       <c r="E8" s="1">
-        <f t="shared" ref="E8:G12" si="2">$D8/E$3^$A8</f>
-        <v>95.890410958904113</v>
+        <f t="shared" ref="E8:E11" si="1">$D8/E$3^$A8</f>
+        <v>248.8038277511962</v>
       </c>
       <c r="F8" s="1">
-        <f t="shared" si="2"/>
-        <v>94.594594594594582</v>
-      </c>
-      <c r="G8" s="1">
-        <f t="shared" si="2"/>
-        <v>95.110074512466028</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+        <f>$D8/F$3^$A8</f>
+        <v>222.09178862312623</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>2</v>
       </c>
       <c r="B9">
-        <v>180</v>
+        <v>340</v>
       </c>
       <c r="C9">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="D9">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="E9" s="1">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="E9" s="1">
-        <f t="shared" si="2"/>
-        <v>100.08131606930631</v>
+        <v>265.56168585884029</v>
       </c>
       <c r="F9" s="1">
-        <f t="shared" si="2"/>
-        <v>97.394691989286571</v>
-      </c>
-      <c r="G9" s="1">
-        <f t="shared" si="2"/>
-        <v>98.459061483176498</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+        <f>$D9/F$3^$A9</f>
+        <v>211.60031281668077</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A10">
         <v>3</v>
       </c>
       <c r="B10">
-        <v>210</v>
+        <v>400</v>
       </c>
       <c r="C10">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D10">
+        <f t="shared" si="0"/>
+        <v>340</v>
+      </c>
+      <c r="E10" s="1">
         <f t="shared" si="1"/>
-        <v>130</v>
-      </c>
-      <c r="E10" s="1">
-        <f t="shared" si="2"/>
-        <v>99.015000677395903</v>
+        <v>297.94084537866917</v>
       </c>
       <c r="F10" s="1">
-        <f t="shared" si="2"/>
-        <v>95.054879569123528</v>
-      </c>
-      <c r="G10" s="1">
-        <f t="shared" si="2"/>
-        <v>96.61732758984212</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+        <f>$D10/F$3^$A10</f>
+        <v>211.91240400355017</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A11">
         <v>4</v>
       </c>
       <c r="B11">
-        <v>190</v>
+        <v>360</v>
       </c>
       <c r="C11">
         <v>70</v>
       </c>
       <c r="D11">
+        <f t="shared" si="0"/>
+        <v>290</v>
+      </c>
+      <c r="E11" s="1">
         <f t="shared" si="1"/>
-        <v>120</v>
-      </c>
-      <c r="E11" s="1">
-        <f t="shared" si="2"/>
-        <v>83.468915218036585</v>
+        <v>243.18278964203233</v>
       </c>
       <c r="F11" s="1">
-        <f t="shared" si="2"/>
-        <v>79.047716897400008</v>
-      </c>
-      <c r="G11" s="1">
-        <f t="shared" si="2"/>
-        <v>80.784889901232745</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>170</v>
-      </c>
-      <c r="C12">
-        <v>65</v>
-      </c>
-      <c r="D12">
-        <f t="shared" si="1"/>
-        <v>105</v>
-      </c>
-      <c r="E12" s="1">
-        <f t="shared" si="2"/>
-        <v>66.69890485459544</v>
-      </c>
-      <c r="F12" s="1">
-        <f t="shared" si="2"/>
-        <v>62.312389446148657</v>
-      </c>
-      <c r="G12" s="1">
-        <f t="shared" si="2"/>
-        <v>64.028807483230082</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+        <f>$D11/F$3^$A11</f>
+        <v>154.39549097971437</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E12" s="1"/>
+      <c r="F12" s="1"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.45">
       <c r="C13" t="s">
         <v>29</v>
       </c>
       <c r="D13">
         <f>SUM(D7:D12)</f>
-        <v>145</v>
+        <v>380</v>
       </c>
       <c r="E13" s="1">
         <f>SUM(E7:E12)</f>
-        <v>10.154547778238339</v>
+        <v>255.48914863073799</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ref="F13:G13" si="3">SUM(F7:F12)</f>
-        <v>-6.5957275034466534</v>
-      </c>
-      <c r="G13" s="1">
+        <f>SUM(F7:F12)</f>
+        <v>-3.5769284068010165E-6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>25</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="G16" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A17">
+        <v>0</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>440</v>
+      </c>
+      <c r="D17">
+        <f>B17-C17</f>
+        <v>-440</v>
+      </c>
+      <c r="E17" s="1">
+        <f>$D17/E$3^$A17</f>
+        <v>-440</v>
+      </c>
+      <c r="F17" s="1"/>
+      <c r="G17" s="1">
+        <f>$D17/G$3^$A17</f>
+        <v>-440</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A18">
+        <v>1</v>
+      </c>
+      <c r="B18">
+        <v>300</v>
+      </c>
+      <c r="C18">
+        <v>140</v>
+      </c>
+      <c r="D18">
+        <f t="shared" ref="D18:D21" si="2">B18-C18</f>
+        <v>160</v>
+      </c>
+      <c r="E18" s="1">
+        <f t="shared" ref="E18:E21" si="3">$D18/E$3^$A18</f>
+        <v>153.11004784688996</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" s="1">
+        <f>$D18/G$3^$A18</f>
+        <v>126.73389768996148</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>2</v>
+      </c>
+      <c r="B19">
+        <v>340</v>
+      </c>
+      <c r="C19">
+        <v>150</v>
+      </c>
+      <c r="D19">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="E19" s="1">
         <f t="shared" si="3"/>
-        <v>1.6096994748693305E-4</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-    </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="E17" s="1"/>
-      <c r="F17" s="1"/>
-      <c r="G17" s="1"/>
-      <c r="H17" s="1"/>
-    </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B18" s="1"/>
-      <c r="E18" s="1"/>
-      <c r="F18" s="1"/>
-      <c r="G18" s="1"/>
-      <c r="H18" s="1"/>
-    </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B19" s="1"/>
-      <c r="E19" s="1"/>
+        <v>173.98869073510224</v>
+      </c>
       <c r="F19" s="1"/>
-      <c r="G19" s="1"/>
-      <c r="H19" s="1"/>
-    </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B20" s="1"/>
-      <c r="E20" s="1"/>
+      <c r="G19" s="1">
+        <f>$D19/G$3^$A19</f>
+        <v>119.20630298832143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A20">
+        <v>3</v>
+      </c>
+      <c r="B20">
+        <v>400</v>
+      </c>
+      <c r="C20">
+        <v>160</v>
+      </c>
+      <c r="D20">
+        <f t="shared" si="2"/>
+        <v>240</v>
+      </c>
+      <c r="E20" s="1">
+        <f t="shared" si="3"/>
+        <v>210.31118497317823</v>
+      </c>
       <c r="F20" s="1"/>
-      <c r="G20" s="1"/>
-      <c r="H20" s="1"/>
-    </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B21" s="1"/>
-      <c r="E21" s="1"/>
+      <c r="G20" s="1">
+        <f>$D20/G$3^$A20</f>
+        <v>119.26957426516167</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A21">
+        <v>4</v>
+      </c>
+      <c r="B21">
+        <v>360</v>
+      </c>
+      <c r="C21">
+        <v>170</v>
+      </c>
+      <c r="D21">
+        <f t="shared" si="2"/>
+        <v>190</v>
+      </c>
+      <c r="E21" s="1">
+        <f t="shared" si="3"/>
+        <v>159.32665528271082</v>
+      </c>
       <c r="F21" s="1"/>
-      <c r="G21" s="1"/>
-      <c r="H21" s="1"/>
-    </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B22" s="1"/>
-    </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
-      <c r="B23" s="1"/>
-      <c r="E23" s="1"/>
+      <c r="G21" s="1">
+        <f>$D21/G$3^$A21</f>
+        <v>74.790224590228888</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="E22" s="1"/>
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="C23" t="s">
+        <v>29</v>
+      </c>
+      <c r="D23">
+        <f>SUM(D17:D22)</f>
+        <v>340</v>
+      </c>
+      <c r="E23" s="1">
+        <f>SUM(E17:E22)</f>
+        <v>256.73657883788127</v>
+      </c>
       <c r="F23" s="1"/>
-      <c r="G23" s="1"/>
-      <c r="H23" s="1"/>
+      <c r="G23" s="1">
+        <f>SUM(G17:G22)</f>
+        <v>-4.6632651162781258E-7</v>
+      </c>
       <c r="I23" s="1"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B24" s="1"/>
       <c r="E24" s="1"/>
       <c r="F24" s="1"/>
@@ -6317,7 +6117,7 @@
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
@@ -6325,7 +6125,7 @@
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
@@ -6333,7 +6133,7 @@
       <c r="H26" s="1"/>
       <c r="I26" s="1"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
@@ -6341,7 +6141,7 @@
       <c r="H27" s="1"/>
       <c r="I27" s="1"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
@@ -6349,10 +6149,10 @@
       <c r="H28" s="1"/>
       <c r="I28" s="1"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B29" s="1"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
@@ -6361,7 +6161,7 @@
       <c r="I30" s="1"/>
       <c r="J30" s="1"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
@@ -6370,7 +6170,7 @@
       <c r="I31" s="1"/>
       <c r="J31" s="1"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:10" x14ac:dyDescent="0.45">
       <c r="B32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1"/>
@@ -6379,7 +6179,7 @@
       <c r="I32" s="1"/>
       <c r="J32" s="1"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1"/>
@@ -6388,7 +6188,7 @@
       <c r="I33" s="1"/>
       <c r="J33" s="1"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1"/>
@@ -6397,7 +6197,7 @@
       <c r="I34" s="1"/>
       <c r="J34" s="1"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B35" s="1"/>
       <c r="E35" s="1"/>
       <c r="F35" s="1"/>
@@ -6406,10 +6206,10 @@
       <c r="I35" s="1"/>
       <c r="J35" s="1"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.45">
       <c r="B37" s="1"/>
     </row>
   </sheetData>
@@ -6422,468 +6222,468 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0040891-71F7-467C-9261-325838F06AB6}">
   <dimension ref="A4:F35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G32" sqref="G32"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="3" max="3" width="13.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.86328125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="15.1328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="E4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F4">
         <f>(LN(1/(1-(B5*(B9/(B6-B7))))))/(LN(B10))</f>
-        <v>13.02438387006365</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+        <v>16.725008228036039</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B5">
-        <v>400000</v>
+        <v>50000</v>
       </c>
       <c r="E5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F5">
         <f>(LN(1+B5*((B12-B10)/(B6-B7))))/(LN(B12/B10))</f>
-        <v>11.491531809897802</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+        <v>13.32717857026674</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B6">
-        <v>60000</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+        <v>6000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
         <v>4</v>
       </c>
       <c r="B7">
-        <v>20000</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+        <v>2000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <f>B5/(B6-B7)</f>
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+        <v>12.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
         <v>2</v>
       </c>
       <c r="B9">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+        <v>3.5000000000000003E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>3</v>
       </c>
       <c r="B10">
         <f>1+B9</f>
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.0349999999999999</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B11">
-        <v>0.02</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <f>1+B11</f>
-        <v>1.02</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
         <v>25</v>
       </c>
       <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
         <v>37</v>
       </c>
-      <c r="C14" t="s">
+      <c r="D14" t="s">
         <v>38</v>
       </c>
-      <c r="D14" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>0</v>
       </c>
       <c r="B15">
         <f>-B5</f>
-        <v>-400000</v>
+        <v>-50000</v>
       </c>
       <c r="C15">
         <f>-B5</f>
-        <v>-400000</v>
+        <v>-50000</v>
       </c>
       <c r="D15">
         <f>C15</f>
-        <v>-400000</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+        <v>-50000</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A16">
         <v>1</v>
       </c>
       <c r="B16">
         <f>B15+($B$6-$B$7)</f>
-        <v>-360000</v>
+        <v>-46000</v>
       </c>
       <c r="C16" s="1">
         <f>C15+($B$6-$B$7)/$B$10^A16</f>
-        <v>-361538.46153846156</v>
+        <v>-46135.265700483091</v>
       </c>
       <c r="D16" s="1">
         <f>D15+($B$6-$B$7)*$B$12^(A16-1)/$B$10^A16</f>
-        <v>-361538.46153846156</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-46135.265700483091</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>2</v>
       </c>
       <c r="B17">
         <f t="shared" ref="B17:B30" si="0">B16+($B$6-$B$7)</f>
-        <v>-320000</v>
+        <v>-42000</v>
       </c>
       <c r="C17" s="1">
-        <f t="shared" ref="C17:C32" si="1">C16+($B$6-$B$7)/$B$10^A17</f>
-        <v>-324556.21301775152</v>
+        <f t="shared" ref="C17:C30" si="1">C16+($B$6-$B$7)/$B$10^A17</f>
+        <v>-42401.222899017477</v>
       </c>
       <c r="D17" s="1">
-        <f t="shared" ref="D17:D32" si="2">D16+($B$6-$B$7)*$B$12^(A17-1)/$B$10^A17</f>
-        <v>-323816.56804733729</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+        <f t="shared" ref="D17:D30" si="2">D16+($B$6-$B$7)*$B$12^(A17-1)/$B$10^A17</f>
+        <v>-42289.201614973514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A18">
         <v>3</v>
       </c>
       <c r="B18">
         <f t="shared" si="0"/>
-        <v>-280000</v>
+        <v>-38000</v>
       </c>
       <c r="C18" s="1">
         <f t="shared" si="1"/>
-        <v>-288996.35867091495</v>
+        <v>-38793.452076345391</v>
       </c>
       <c r="D18" s="1">
         <f t="shared" si="2"/>
-        <v>-286820.09558488848</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-38461.717549200694</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A19">
         <v>4</v>
       </c>
       <c r="B19">
         <f t="shared" si="0"/>
-        <v>-240000</v>
+        <v>-34000</v>
       </c>
       <c r="C19" s="1">
         <f t="shared" si="1"/>
-        <v>-254804.19102972592</v>
+        <v>-35307.683165551105</v>
       </c>
       <c r="D19" s="1">
         <f t="shared" si="2"/>
-        <v>-250535.09374671755</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-34652.723744615185</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>5</v>
       </c>
       <c r="B20">
         <f t="shared" si="0"/>
-        <v>-200000</v>
+        <v>-30000</v>
       </c>
       <c r="C20" s="1">
         <f t="shared" si="1"/>
-        <v>-221927.10675935185</v>
+        <v>-31939.790498117007</v>
       </c>
       <c r="D20" s="1">
         <f t="shared" si="2"/>
-        <v>-214947.88040543452</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-30862.130876283711</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A21">
         <v>6</v>
       </c>
       <c r="B21">
         <f t="shared" si="0"/>
-        <v>-160000</v>
+        <v>-26000</v>
       </c>
       <c r="C21" s="1">
         <f t="shared" si="1"/>
-        <v>-190314.52573014604</v>
+        <v>-28685.787920885996</v>
       </c>
       <c r="D21" s="1">
         <f t="shared" si="2"/>
-        <v>-180045.03655148388</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-27089.850050794415</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A22">
         <v>7</v>
       </c>
       <c r="B22">
         <f t="shared" si="0"/>
-        <v>-120000</v>
+        <v>-22000</v>
       </c>
       <c r="C22" s="1">
         <f t="shared" si="1"/>
-        <v>-159917.81320206349</v>
+        <v>-25541.824078150719</v>
       </c>
       <c r="D22" s="1">
         <f t="shared" si="2"/>
-        <v>-145813.40123318613</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-23335.792804172219</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>8</v>
       </c>
       <c r="B23">
         <f t="shared" si="0"/>
-        <v>-80000</v>
+        <v>-18000</v>
       </c>
       <c r="C23" s="1">
         <f t="shared" si="1"/>
-        <v>-130690.20500198414</v>
+        <v>-22504.177853285717</v>
       </c>
       <c r="D23" s="1">
         <f t="shared" si="2"/>
-        <v>-112240.06659408641</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-19599.871099804233</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A24">
         <v>9</v>
       </c>
       <c r="B24">
         <f t="shared" si="0"/>
-        <v>-40000</v>
+        <v>-14000</v>
       </c>
       <c r="C24" s="1">
         <f t="shared" si="1"/>
-        <v>-102586.73557883092</v>
+        <v>-19569.253964527259</v>
       </c>
       <c r="D24" s="1">
         <f t="shared" si="2"/>
-        <v>-79312.373005738613</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-15881.997326375225</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A25">
         <v>10</v>
       </c>
       <c r="B25">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-10000</v>
       </c>
       <c r="C25" s="1">
         <f t="shared" si="1"/>
-        <v>-75564.168825798988</v>
+        <v>-16733.578709688169</v>
       </c>
       <c r="D25" s="1">
         <f t="shared" si="2"/>
-        <v>-47017.904294089807</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-12182.084295813023</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>11</v>
       </c>
       <c r="B26">
         <f t="shared" si="0"/>
-        <v>40000</v>
+        <v>-6000</v>
       </c>
       <c r="C26" s="1">
         <f t="shared" si="1"/>
-        <v>-49580.93156326827</v>
+        <v>-13993.795854771175</v>
       </c>
       <c r="D26" s="1">
         <f t="shared" si="2"/>
-        <v>-15344.483057665017</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-8500.0452412438754</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A27">
         <v>12</v>
       </c>
       <c r="B27">
         <f t="shared" si="0"/>
-        <v>80000</v>
+        <v>-2000</v>
       </c>
       <c r="C27" s="1">
         <f t="shared" si="1"/>
-        <v>-24597.049580065664</v>
+        <v>-11346.662661614659</v>
       </c>
       <c r="D27" s="1">
         <f t="shared" si="2"/>
-        <v>15719.83392421313</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-4835.7938149576694</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A28">
         <v>13</v>
       </c>
       <c r="B28">
         <f t="shared" si="0"/>
-        <v>120000</v>
+        <v>2000</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" si="1"/>
-        <v>-574.08613467854593</v>
+        <v>-8789.0460498692319</v>
       </c>
       <c r="D28" s="1">
         <f t="shared" si="2"/>
-        <v>46186.760194901319</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+        <v>-1189.2440863829911</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>14</v>
       </c>
       <c r="B29">
         <f t="shared" si="0"/>
-        <v>160000</v>
+        <v>6000</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" si="1"/>
-        <v>22524.917178193686</v>
+        <v>-6317.9188887625396</v>
       </c>
       <c r="D29" s="1">
         <f t="shared" si="2"/>
-        <v>76067.784037307036</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+        <v>2439.6894599280404</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A30">
         <v>15</v>
       </c>
       <c r="B30">
         <f t="shared" si="0"/>
-        <v>200000</v>
+        <v>10000</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" si="1"/>
-        <v>44735.497286724676</v>
+        <v>-3930.3564142633199</v>
       </c>
       <c r="D30" s="1">
         <f t="shared" si="2"/>
-        <v>105374.17280582034</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+        <v>6051.0919263052028</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A31">
         <v>16</v>
       </c>
       <c r="B31">
         <f t="shared" ref="B31:B35" si="3">B30+($B$6-$B$7)</f>
-        <v>240000</v>
+        <v>14000</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" ref="C31:C35" si="4">C30+($B$6-$B$7)/$B$10^A31</f>
-        <v>66091.824314158323</v>
+        <v>-1623.53276740417</v>
       </c>
       <c r="D31" s="1">
         <f t="shared" ref="D31:D35" si="5">D30+($B$6-$B$7)*$B$12^(A31-1)/$B$10^A31</f>
-        <v>134116.97717493915</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+        <v>9645.0480039559079</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>17</v>
       </c>
       <c r="B32">
         <f t="shared" si="3"/>
-        <v>280000</v>
+        <v>18000</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" si="4"/>
-        <v>86626.754148229127</v>
+        <v>605.28235033413921</v>
       </c>
       <c r="D32" s="1">
         <f t="shared" si="5"/>
-        <v>162307.03530619029</v>
-      </c>
-    </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+        <v>13221.641974951293</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A33">
         <v>18</v>
       </c>
       <c r="B33">
         <f t="shared" si="3"/>
-        <v>320000</v>
+        <v>22000</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" si="4"/>
-        <v>106371.87898868183</v>
+        <v>2758.7269085354042</v>
       </c>
       <c r="D33" s="1">
         <f t="shared" si="5"/>
-        <v>189954.97693491736</v>
-      </c>
-    </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+        <v>16780.957714202741</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34">
         <v>19</v>
       </c>
       <c r="B34">
         <f t="shared" si="3"/>
-        <v>360000</v>
+        <v>26000</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" si="4"/>
-        <v>125357.57595065558</v>
+        <v>4839.3496700825199</v>
       </c>
       <c r="D34" s="1">
         <f t="shared" si="5"/>
-        <v>217071.22737847661</v>
-      </c>
-    </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+        <v>20323.078691428818</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>20</v>
       </c>
       <c r="B35">
         <f t="shared" si="3"/>
-        <v>400000</v>
+        <v>30000</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" si="4"/>
-        <v>143613.05379870726</v>
+        <v>6849.6132078092023</v>
       </c>
       <c r="D35" s="1">
         <f t="shared" si="5"/>
-        <v>243666.01146735204</v>
+        <v>23848.087973112742</v>
       </c>
     </row>
   </sheetData>
